--- a/ExaminationManagement/Resources/Templates/学生成绩模板.xlsx
+++ b/ExaminationManagement/Resources/Templates/学生成绩模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1work\python\exam_manage_system\exam_manage_system\app\static\mould\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULL\Source\Repos\ExaminationManagement\ExaminationManagement\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4AF0EF5-B753-45EC-B310-6A2DC9005153}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>课程名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>学生姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,16 +373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,9 +398,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
